--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value825.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value825.xlsx
@@ -351,7 +351,7 @@
         <v>1.146232848484688</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
         <v>2.677228546184952</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value825.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value825.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.146232848484688</v>
+        <v>1.490588188171387</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>3.713589668273926</v>
       </c>
       <c r="C1">
-        <v>2.677228546184952</v>
+        <v>2.131559133529663</v>
       </c>
       <c r="D1">
-        <v>1.723427695947988</v>
+        <v>1.243484616279602</v>
       </c>
       <c r="E1">
-        <v>1.404019917838774</v>
+        <v>0.7562664151191711</v>
       </c>
     </row>
   </sheetData>
